--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\frelancer\Quiz streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\backup download 21-08-24\extract app\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF89BFB-5431-4EF7-B395-EBC62F103C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3BCB3-EE09-4109-B7C4-78811C2260F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>question</t>
   </si>
@@ -33,22 +33,70 @@
     <t>answer</t>
   </si>
   <si>
-    <t>What is the capital of France?</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>What is 2 + 2?</t>
-  </si>
-  <si>
-    <t>What is the largest ocean on Earth?</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>What is 2 - 2?</t>
+    <t>J manuh k valobashe</t>
+  </si>
+  <si>
+    <t>Philanthropist</t>
+  </si>
+  <si>
+    <t>Aprocholito</t>
+  </si>
+  <si>
+    <t>Obsolete(Adj)</t>
+  </si>
+  <si>
+    <t>ja porte para jy na</t>
+  </si>
+  <si>
+    <t>Illegible(Adj)</t>
+  </si>
+  <si>
+    <t>অনিবার্য</t>
+  </si>
+  <si>
+    <t>Inevitable</t>
+  </si>
+  <si>
+    <t>Pakhir khacha</t>
+  </si>
+  <si>
+    <t>Aviary(N)</t>
+  </si>
+  <si>
+    <t>Somokalin</t>
+  </si>
+  <si>
+    <t>Contemporary</t>
+  </si>
+  <si>
+    <t>Nastik (j vogoban biswsas kore na)</t>
+  </si>
+  <si>
+    <t>Atheist(N)</t>
+  </si>
+  <si>
+    <t>Kalokrom (Date in order of their occourance)</t>
+  </si>
+  <si>
+    <t>Chronology(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age the toire ba porasuno na kore </t>
+  </si>
+  <si>
+    <t>Extempore</t>
+  </si>
+  <si>
+    <t>Fastidious</t>
+  </si>
+  <si>
+    <t>ধৈর্যশীল</t>
+  </si>
+  <si>
+    <t>Amateur</t>
+  </si>
+  <si>
+    <t>Anuvobhin  অপেশাদার</t>
   </si>
 </sst>
 </file>
@@ -376,16 +424,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -408,24 +456,80 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
